--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hp-Itgam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hp-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Itgam</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.72446265264728</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H2">
-        <v>3.72446265264728</v>
+        <v>11.673104</v>
       </c>
       <c r="I2">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J2">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N2">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O2">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P2">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q2">
-        <v>445.7712812998371</v>
+        <v>489.0995426986845</v>
       </c>
       <c r="R2">
-        <v>445.7712812998371</v>
+        <v>4401.89588428816</v>
       </c>
       <c r="S2">
-        <v>0.2625589405562382</v>
+        <v>0.1084065061331995</v>
       </c>
       <c r="T2">
-        <v>0.2625589405562382</v>
+        <v>0.1084134040579677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +587,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.72446265264728</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H3">
-        <v>3.72446265264728</v>
+        <v>11.673104</v>
       </c>
       <c r="I3">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J3">
-        <v>0.4519082248506006</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N3">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O3">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P3">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q3">
-        <v>321.4762860266256</v>
+        <v>343.574855244432</v>
       </c>
       <c r="R3">
-        <v>321.4762860266256</v>
+        <v>3092.173697199888</v>
       </c>
       <c r="S3">
-        <v>0.1893492842943623</v>
+        <v>0.07615167547849114</v>
       </c>
       <c r="T3">
-        <v>0.1893492842943623</v>
+        <v>0.07615652102279619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.51717236932776</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H4">
-        <v>4.51717236932776</v>
+        <v>11.673104</v>
       </c>
       <c r="I4">
-        <v>0.5480917751493996</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="J4">
-        <v>0.5480917751493996</v>
+        <v>0.1847044466412152</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N4">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q4">
-        <v>540.6486526307917</v>
+        <v>0.5008410121777778</v>
       </c>
       <c r="R4">
-        <v>540.6486526307917</v>
+        <v>4.5075691096</v>
       </c>
       <c r="S4">
-        <v>0.3184416390261303</v>
+        <v>0.0001110089450479344</v>
       </c>
       <c r="T4">
-        <v>0.3184416390261303</v>
+        <v>0.0001110160085663417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.891034666666667</v>
+      </c>
+      <c r="H5">
+        <v>11.673104</v>
+      </c>
+      <c r="I5">
+        <v>0.1847044466412152</v>
+      </c>
+      <c r="J5">
+        <v>0.1847044466412152</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.04088</v>
+      </c>
+      <c r="N5">
+        <v>0.08176</v>
+      </c>
+      <c r="O5">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P5">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q5">
+        <v>0.1590654971733333</v>
+      </c>
+      <c r="R5">
+        <v>0.95439298304</v>
+      </c>
+      <c r="S5">
+        <v>3.52560844767025E-05</v>
+      </c>
+      <c r="T5">
+        <v>2.350555188497759E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H6">
+        <v>29.927301</v>
+      </c>
+      <c r="I6">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J6">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N6">
+        <v>377.09729</v>
+      </c>
+      <c r="O6">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P6">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q6">
+        <v>1253.944900457143</v>
+      </c>
+      <c r="R6">
+        <v>11285.50410411429</v>
+      </c>
+      <c r="S6">
+        <v>0.2779307148644103</v>
+      </c>
+      <c r="T6">
+        <v>0.2779483996439526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H7">
+        <v>29.927301</v>
+      </c>
+      <c r="I7">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J7">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>88.299099</v>
+      </c>
+      <c r="N7">
+        <v>264.897297</v>
+      </c>
+      <c r="O7">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P7">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q7">
+        <v>880.8512379339329</v>
+      </c>
+      <c r="R7">
+        <v>7927.661141405397</v>
+      </c>
+      <c r="S7">
+        <v>0.195236341053684</v>
+      </c>
+      <c r="T7">
+        <v>0.1952487639758927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H8">
+        <v>29.927301</v>
+      </c>
+      <c r="I8">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J8">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.38615</v>
+      </c>
+      <c r="O8">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P8">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q8">
+        <v>1.284047475683333</v>
+      </c>
+      <c r="R8">
+        <v>11.55642728115</v>
+      </c>
+      <c r="S8">
+        <v>0.0002846028024886947</v>
+      </c>
+      <c r="T8">
+        <v>0.0002846209118143285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4.51717236932776</v>
-      </c>
-      <c r="H5">
-        <v>4.51717236932776</v>
-      </c>
-      <c r="I5">
-        <v>0.5480917751493996</v>
-      </c>
-      <c r="J5">
-        <v>0.5480917751493996</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="N5">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="O5">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="P5">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="Q5">
-        <v>389.898874566888</v>
-      </c>
-      <c r="R5">
-        <v>389.898874566888</v>
-      </c>
-      <c r="S5">
-        <v>0.2296501361232692</v>
-      </c>
-      <c r="T5">
-        <v>0.2296501361232692</v>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>9.975766999999999</v>
+      </c>
+      <c r="H9">
+        <v>29.927301</v>
+      </c>
+      <c r="I9">
+        <v>0.4735420476567404</v>
+      </c>
+      <c r="J9">
+        <v>0.4735420476567405</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.04088</v>
+      </c>
+      <c r="N9">
+        <v>0.08176</v>
+      </c>
+      <c r="O9">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P9">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q9">
+        <v>0.40780935496</v>
+      </c>
+      <c r="R9">
+        <v>2.44685612976</v>
+      </c>
+      <c r="S9">
+        <v>9.038893615748675E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.026312508077043E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H10">
+        <v>21.552749</v>
+      </c>
+      <c r="I10">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J10">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N10">
+        <v>377.09729</v>
+      </c>
+      <c r="O10">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P10">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q10">
+        <v>903.0536933278012</v>
+      </c>
+      <c r="R10">
+        <v>8127.48323995021</v>
+      </c>
+      <c r="S10">
+        <v>0.2001574060040765</v>
+      </c>
+      <c r="T10">
+        <v>0.2001701420545006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H11">
+        <v>21.552749</v>
+      </c>
+      <c r="I11">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J11">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>88.299099</v>
+      </c>
+      <c r="N11">
+        <v>264.897297</v>
+      </c>
+      <c r="O11">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P11">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q11">
+        <v>634.362772557717</v>
+      </c>
+      <c r="R11">
+        <v>5709.264953019452</v>
+      </c>
+      <c r="S11">
+        <v>0.1406033859989061</v>
+      </c>
+      <c r="T11">
+        <v>0.1406123326167187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H12">
+        <v>21.552749</v>
+      </c>
+      <c r="I12">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J12">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.38615</v>
+      </c>
+      <c r="O12">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P12">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q12">
+        <v>0.9247326695944444</v>
+      </c>
+      <c r="R12">
+        <v>8.32259402635</v>
+      </c>
+      <c r="S12">
+        <v>0.0002049624443826529</v>
+      </c>
+      <c r="T12">
+        <v>0.0002049754861785016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.184249666666666</v>
+      </c>
+      <c r="H13">
+        <v>21.552749</v>
+      </c>
+      <c r="I13">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="J13">
+        <v>0.3410308498615283</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.04088</v>
+      </c>
+      <c r="N13">
+        <v>0.08176</v>
+      </c>
+      <c r="O13">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P13">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q13">
+        <v>0.2936921263733333</v>
+      </c>
+      <c r="R13">
+        <v>1.76215275824</v>
+      </c>
+      <c r="S13">
+        <v>6.509541416311938E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.339970413040086E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.045671</v>
+      </c>
+      <c r="I14">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J14">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N14">
+        <v>377.09729</v>
+      </c>
+      <c r="O14">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P14">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q14">
+        <v>1.913601147954445</v>
+      </c>
+      <c r="R14">
+        <v>17.22241033159</v>
+      </c>
+      <c r="S14">
+        <v>0.00042414027508102</v>
+      </c>
+      <c r="T14">
+        <v>0.0004241672632002117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.045671</v>
+      </c>
+      <c r="I15">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J15">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>88.299099</v>
+      </c>
+      <c r="N15">
+        <v>264.897297</v>
+      </c>
+      <c r="O15">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P15">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q15">
+        <v>1.344236050143</v>
+      </c>
+      <c r="R15">
+        <v>12.098124451287</v>
+      </c>
+      <c r="S15">
+        <v>0.0002979433037500711</v>
+      </c>
+      <c r="T15">
+        <v>0.0002979622619341115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.045671</v>
+      </c>
+      <c r="I16">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J16">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.38615</v>
+      </c>
+      <c r="O16">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P16">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q16">
+        <v>0.001959539627777778</v>
+      </c>
+      <c r="R16">
+        <v>0.01763585665</v>
+      </c>
+      <c r="S16">
+        <v>4.343223130098226E-07</v>
+      </c>
+      <c r="T16">
+        <v>4.343499490138518E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01522366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.045671</v>
+      </c>
+      <c r="I17">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="J17">
+        <v>0.0007226558405160223</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.04088</v>
+      </c>
+      <c r="N17">
+        <v>0.08176</v>
+      </c>
+      <c r="O17">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P17">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q17">
+        <v>0.0006223434933333334</v>
+      </c>
+      <c r="R17">
+        <v>0.00373406096</v>
+      </c>
+      <c r="S17">
+        <v>1.379393719215969E-07</v>
+      </c>
+      <c r="T17">
+        <v>9.196543268515482E-08</v>
       </c>
     </row>
   </sheetData>
